--- a/data/trans_bre/P25_N_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_N_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,22</t>
+          <t>23,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,88</t>
+          <t>15,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,81</t>
+          <t>19,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>50,19%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>46,51%</t>
+          <t>31,23</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>41,29%</t>
+          <t>48,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,07%</t>
+          <t>31,32%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>39,26%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>66,12%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,74; 34,5</t>
+          <t>11,78; 37,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,72; 28,83</t>
+          <t>6,05; 25,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,26; 30,17</t>
+          <t>11,97; 29,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 25,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,78; 86,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,51; 78,17</t>
+          <t>18,29; 48,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,44; 69,5</t>
+          <t>22,4; 104,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,96; 54,13</t>
+          <t>11,42; 61,18</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>21,25; 69,98</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>31,43; 145,23</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,65</t>
+          <t>24,37</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,7</t>
+          <t>19,19</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,83</t>
+          <t>18,57</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>73,58%</t>
+          <t>17,88</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>67,74%</t>
+          <t>89,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>56,05%</t>
+          <t>73,21%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>65,98%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>49,51%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,8; 29,11</t>
+          <t>16,72; 31,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,06; 22,42</t>
+          <t>12,98; 25,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,89; 24,39</t>
+          <t>12,64; 24,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,09; 25,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,92; 131,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,8; 105,09</t>
+          <t>9,81; 25,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,13; 100,11</t>
+          <t>52,47; 133,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,71; 84,4</t>
+          <t>42,85; 110,4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>39,7; 101,36</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>24,0; 82,27</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,55</t>
+          <t>8,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,65%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,55%</t>
+          <t>9,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>32,07%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19,4%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>27,89%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 12,88</t>
+          <t>-2,48; 14,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 13,83</t>
+          <t>1,9; 14,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 11,07</t>
+          <t>-1,2; 11,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 14,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 50,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 61,8</t>
+          <t>1,23; 16,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 44,39</t>
+          <t>-7,42; 53,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,92; 65,44</t>
+          <t>5,37; 61,01</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 44,55</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 57,25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,43</t>
+          <t>20,04</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,95</t>
+          <t>18,5</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>63,78%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>55,59%</t>
+          <t>16,23</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>49,1%</t>
+          <t>73,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>82,47%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>41,1%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,96; 23,47</t>
+          <t>14,34; 26,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,32; 19,5</t>
+          <t>11,13; 25,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,24; 19,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,44; 20,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>44,48; 82,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,57; 73,48</t>
+          <t>7,62; 24,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,74; 64,58</t>
+          <t>45,3; 107,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,86; 59,77</t>
+          <t>40,95; 137,64</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16,42; 70,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18,98</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16,22</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15,5</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>17,97</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>62,65%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>56,34%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>47,07%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>47,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15,23; 22,89</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12,38; 19,87</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11,88; 19,4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13,28; 22,26</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>45,64; 80,38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>38,62; 73,45</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>33,47; 63,38</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>33,07; 63,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_N_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_N_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>23,69</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>15,36</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>19,71</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>31,23</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>48,8%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>31,32%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>39,26%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>66,12%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>23.67428719452055</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>15.80429404966653</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>19.80388855775717</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>31.39256037026118</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.4878694132739128</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.324054011845601</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.3965319079905457</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="n">
+        <v>0.6702467218867814</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>11,78; 37,81</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>6,05; 25,42</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>11,97; 29,98</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>18,29; 48,36</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>22,4; 104,19</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>11,42; 61,18</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>21,25; 69,98</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>31,43; 145,23</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>11.33885520088809</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>6.866738723105001</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>11.94032943597273</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>18.58711135723104</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.2081886718830755</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.1248633833919439</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.2155766307224417</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="n">
+        <v>0.3098698177936676</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>37.15672827510657</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>25.56925966065711</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>29.73925253147919</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>48.7867414674164</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.000654852232489</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.6179676052130247</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.6981189940408918</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="n">
+        <v>1.454837625255232</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>24,37</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>19,19</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>18,57</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>17,88</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>89,01%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>73,21%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>65,98%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>49,51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>16,72; 31,46</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>12,98; 25,31</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>12,64; 24,61</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>9,81; 25,91</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>52,47; 133,25</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>42,85; 110,4</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>39,7; 101,36</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>24,0; 82,27</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>24.8464192157576</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>19.05120939636778</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>18.51669892025998</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>17.87837833869112</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.9265389352721004</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.7260020032523662</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.6623432425059117</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="n">
+        <v>0.4978228876050571</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,43</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,42</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,53</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>9,0</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>17,25%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>32,07%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>19,4%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>27,89%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>17.13760865826774</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>12.76865702607448</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>12.574080783194</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>9.924867521319886</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.5374821595870253</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.4276307599113234</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.3889197180922375</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="n">
+        <v>0.2451437549760209</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 14,05</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,9; 14,51</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,2; 11,12</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 16,22</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-7,42; 53,76</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>5,37; 61,01</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-3,5; 44,55</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>2,63; 57,25</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>32.12315377273824</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>25.37555016452376</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>24.74126191564417</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>25.74677382549195</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.380331306924249</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.116863554689749</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.005484856567201</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="n">
+        <v>0.8189658515694782</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>20,04</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>18,5</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>16,23</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>73,41%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>82,47%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>41,1%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>6.399127183623121</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.002732002884045</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.193668310929567</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>9.038588797423513</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.2091032006933241</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.3011899625771158</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1806626192735337</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>0.2833460202589257</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>14,34; 26,75</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>11,13; 25,64</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>7,62; 24,68</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>45,3; 107,97</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>40,95; 137,64</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>16,42; 70,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.798252170502593</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.347976507429149</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.638235027313765</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>1.236212263402874</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.05074642857882034</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.0338487680252567</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.04529687217459159</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>0.03197160939884322</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.44397552590713</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.03428078925105</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.74467539567812</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>16.09023039221729</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.6068220328989362</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.605042074388968</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.430498459295625</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>0.5793393206136358</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>18,98</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>16,22</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>15,5</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>17,97</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>62,65%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>56,34%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>47,07%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>47,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>15,23; 22,89</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>12,38; 19,87</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>11,88; 19,4</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>13,28; 22,26</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>45,64; 80,38</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>38,62; 73,45</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>33,47; 63,38</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>33,07; 63,91</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>18.68135244165789</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>15.23621474412388</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>15.49308966515052</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>18.94620493272684</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.5885205301134507</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4928081746118387</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.4717054184710307</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="n">
+        <v>0.5180482907655354</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>13.3502320811085</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>10.95098103856528</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>11.81485158433964</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>14.04539127058906</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.3786505758826706</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.3192040325150707</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.3393406968503632</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="n">
+        <v>0.3498828809113165</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>23.7197228862834</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>19.27629358210923</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>19.13338626163391</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>24.73627571999934</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.8233359216585966</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.6672954657292739</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.6311181374723681</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="n">
+        <v>0.7370476083319295</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
